--- a/imageCreationExcel/back/darkyobi/darkyobi_15.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_15.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22.00623261650206</v>
+        <v>27.31870830748009</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8124732532430894</v>
+        <v>0.9606101240281418</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9196080694157674</v>
+        <v>0.6683165252340303</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_E_brightness22.0_gamma0.81_contrast0.92.jpg</t>
+          <t>1_9_brightness27.0_gamma0.96_sharpness0.67.jpg</t>
         </is>
       </c>
     </row>
@@ -528,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.27844087979828</v>
+        <v>0.5148619237566117</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.899465961212095</v>
+        <v>0.1511581051162714</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9654928875121869</v>
+        <v>1.004776947867189</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_1_brightness17.0_gamma0.9_contrast0.97.jpg</t>
+          <t>2_T_gamma0.51_sharpness0.15_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9408680562887841</v>
+        <v>0.4749445369888308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.098159107347299</v>
+        <v>0.8065973497726786</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>22.18202949758467</v>
+        <v>0.5449663496687832</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_C_contrast0.94_gamma1.1_equalization22.0.jpg</t>
+          <t>3_P_sharpness0.47_contrast0.81_gamma0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,15 +621,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9417559088096733</v>
+        <v>1.01983314343721</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2581711182382408</v>
+        <v>0.795054351910338</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>20.25551772964996</v>
+        <v>14.81864429581378</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_3_contrast0.94_sharpness0.26_equalization20.0.jpg</t>
+          <t>4_2_contrast1.0_gamma0.8_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8090251292963222</v>
+        <v>0.2191025881328412</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9523385406356424</v>
+        <v>0.6227660426268721</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27.81677420301791</v>
+        <v>12.90186115843957</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_gamma0.81_contrast0.95_equalization28.0.jpg</t>
+          <t>5_1_sharpness0.22_gamma0.62_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9800997268433288</v>
+        <v>24.40627995184104</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.47770896189324</v>
+        <v>0.9045223996650315</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>28.83482123035351</v>
+        <v>0.727046673948448</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_contrast0.98_sharpness0.48_equalization29.0.jpg</t>
+          <t>6_I_brightness24.0_sharpness0.9_gamma0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -738,24 +738,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.06114705039646</v>
+        <v>0.4347713025742278</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9209509008685427</v>
+        <v>1.066634309005844</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7.448949273053763</v>
+        <v>26.09145703404836</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_contrast1.1_sharpness0.92_equalization7.4.jpg</t>
+          <t>7_8_sharpness0.43_contrast1.1_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9789747911505811</v>
+        <v>6.098606168037126</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.183052480173316</v>
+        <v>0.7189007402454672</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.713501950956724</v>
+        <v>0.8351855333193422</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_2_gamma0.98_contrast1.2_equalization4.7.jpg</t>
+          <t>8_T_brightness6.1_gamma0.72_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -827,11 +827,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5126828611571831</v>
+        <v>8.699884931073347</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6005924249651308</v>
+        <v>0.8152370352402043</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.017351693084691</v>
+        <v>0.9712777109102307</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_E_gamma0.51_sharpness0.6_contrast1.0.jpg</t>
+          <t>9_E_brightness8.7_sharpness0.82_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.189963391281967</v>
+        <v>1.158234799590688</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10.3375034174962</v>
+        <v>0.1376033464195475</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.890722852417028</v>
+        <v>1.072827531391625</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_E_contrast1.2_brightness10.0_gamma0.89.jpg</t>
+          <t>10_C_contrast1.2_sharpness0.14_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6042860086951233</v>
+        <v>0.9859892403589519</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7228920726001875</v>
+        <v>0.8602433488607483</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>24.75580883575844</v>
+        <v>27.59659801355827</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_T_sharpness0.6_gamma0.72_equalization25.0.jpg</t>
+          <t>11_3_gamma0.99_sharpness0.86_brightness28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.691684284889129</v>
+        <v>1.081738372598752</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.106615865135398</v>
+        <v>0.6053464358721073</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8187039340287254</v>
+        <v>30.18681202977657</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_9_brightness2.7_contrast1.1_gamma0.82.jpg</t>
+          <t>12_I_contrast1.1_gamma0.61_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.06490512613224819</v>
+        <v>0.9191206451931548</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9000011674716396</v>
+        <v>1.059273288676277</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>25.31142923040028</v>
+        <v>23.44159282468584</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_sharpness0.065_contrast0.9_equalization25.0.jpg</t>
+          <t>13_0_gamma0.92_contrast1.1_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.833024579154271</v>
+        <v>0.04315032481275527</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5792684901109679</v>
+        <v>1.049700725199719</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.159315670187727</v>
+        <v>1.00821579474201</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_sharpness0.83_gamma0.58_equalization5.2.jpg</t>
+          <t>14_B_sharpness0.043_brightness1.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6140120962675734</v>
+        <v>10.23275425466168</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1838882242548309</v>
+        <v>0.02944714110273605</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>11.38678754946988</v>
+        <v>0.7305523751934798</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_gamma0.61_sharpness0.18_equalization11.0.jpg</t>
+          <t>15_B_brightness10.0_sharpness0.029_gamma0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8630624676201309</v>
+        <v>0.8380211752728958</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5782428240946793</v>
+        <v>0.3553888177469049</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4.115488842756072</v>
+        <v>10.1345666671829</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_contrast0.86_sharpness0.58_equalization4.1.jpg</t>
+          <t>16_E_contrast0.84_sharpness0.36_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9632119914855468</v>
+        <v>0.2849031993542004</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8378026865354046</v>
+        <v>1.195710932964242</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>28.62507078543739</v>
+        <v>28.52051848866207</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_T_contrast0.96_sharpness0.84_equalization29.0.jpg</t>
+          <t>17_S_sharpness0.28_contrast1.2_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.146071438812514</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.003526406492486</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>12.29400426083948</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0762108983057399</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H19" t="n">
-        <v>0.9347406011766451</v>
+        <v>14.00104658745535</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_brightness12.0_sharpness0.076_contrast0.93.jpg</t>
+          <t>18_S_contrast1.1_gamma1.0_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8327663627608628</v>
+        <v>0.9740508443478521</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7268685497266241</v>
+        <v>0.9920718229434078</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.2108081789229355</v>
+        <v>30.14089739768664</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_contrast0.83_gamma0.73_sharpness0.21.jpg</t>
+          <t>19_P_gamma0.97_contrast0.99_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.03926256320966859</v>
+        <v>14.73251262634994</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9417633975655785</v>
+        <v>0.03303987711302303</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.109121844645094</v>
+        <v>0.9101484826739573</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_S_sharpness0.039_gamma0.94_contrast1.1.jpg</t>
+          <t>20_T_brightness15.0_sharpness0.033_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1331,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.139093989208707</v>
+        <v>0.722736057647098</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28.527477832841</v>
+        <v>1.111907956476671</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.12850585406581</v>
+        <v>15.51377498770613</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_sharpness0.14_brightness29.0_contrast1.1.jpg</t>
+          <t>21_9_gamma0.72_contrast1.1_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,15 +1377,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8287901862042693</v>
+        <v>0.7557357002127884</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.4470452516020013</v>
+        <v>0.8516492659817092</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>30.75732499829813</v>
+        <v>11.02920893034742</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_S_gamma0.83_sharpness0.45_equalization31.0.jpg</t>
+          <t>22_E_gamma0.76_contrast0.85_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.11448238816546</v>
+        <v>0.5533912341207542</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5872176462107143</v>
+        <v>0.99838736924733</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.072017414713618</v>
+        <v>14.85974891951386</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_0_contrast1.1_sharpness0.59_gamma1.1.jpg</t>
+          <t>23_8_gamma0.55_contrast1.0_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.14730894958639</v>
+        <v>0.8103186088518224</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.817377460358129</v>
+        <v>29.49941608798923</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.6136161237988442</v>
+        <v>1.002374817901851</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_contrast1.1_brightness4.8_gamma0.61.jpg</t>
+          <t>24_P_sharpness0.81_brightness29.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2149208607097938</v>
+        <v>0.9443910037525334</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6192176768820562</v>
+        <v>0.8100336789122297</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>20.78805593666251</v>
+        <v>13.73842801347086</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_sharpness0.21_gamma0.62_equalization21.0.jpg</t>
+          <t>25_9_gamma0.94_sharpness0.81_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8725969276766592</v>
+        <v>0.8541620077286558</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.759202009924542</v>
+        <v>0.1660718494183504</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9.428670371488657</v>
+        <v>14.35370970034294</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_contrast0.87_sharpness0.76_brightness9.4.jpg</t>
+          <t>26_S_contrast0.85_sharpness0.17_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.02392492531415846</v>
+        <v>14.65196347530739</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.821252034446838</v>
+        <v>0.8058685036524005</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8224675274624387</v>
+        <v>0.09011685311706652</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_E_sharpness0.024_brightness4.8_contrast0.82.jpg</t>
+          <t>27_B_brightness15.0_contrast0.81_sharpness0.09.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4252231691848947</v>
+        <v>0.5179132474551144</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.401163824177083</v>
+        <v>24.65448498268343</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8641607344754474</v>
+        <v>0.9509706308368429</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_sharpness0.43_brightness5.4_gamma0.86.jpg</t>
+          <t>28_2_gamma0.52_brightness25.0_sharpness0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9824425936331861</v>
+        <v>1.14085922781476</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6.316812184841915</v>
+        <v>0.9099560108802817</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7389367324633193</v>
+        <v>25.28464464429527</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_sharpness0.98_brightness6.3_gamma0.74.jpg</t>
+          <t>29_8_contrast1.1_gamma0.91_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,30 +1713,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9701771788614821</v>
+        <v>1.129252878885085</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6714907886291456</v>
+        <v>1.56732689217451</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>16.30278866839915</v>
+        <v>0.655028103814707</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_3_contrast0.97_sharpness0.67_brightness16.0.jpg</t>
+          <t>30_B_contrast1.1_brightness1.6_gamma0.66.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.073301438383228</v>
+        <v>1.097053951299131</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7446182785967068</v>
+        <v>0.2009674869856818</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>21.86549165803824</v>
+        <v>20.14198261729577</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_contrast1.1_sharpness0.74_equalization22.0.jpg</t>
+          <t>31_B_contrast1.1_sharpness0.2_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.6404812663524893</v>
+        <v>0.8835366451458396</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.100342432772064</v>
+        <v>0.8104811197334603</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>26.18308284622449</v>
+        <v>0.7022747289678073</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_0_gamma0.64_contrast1.1_equalization26.0.jpg</t>
+          <t>32_3_contrast0.88_gamma0.81_sharpness0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8570002923618363</v>
+        <v>23.59942795739769</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.046004053264147</v>
+        <v>0.5843614477535664</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.04490890161543082</v>
+        <v>0.8385221653046069</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_gamma0.86_contrast1.0_sharpness0.045.jpg</t>
+          <t>33_7_brightness24.0_gamma0.58_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1877,34 +1877,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6422053473345455</v>
+        <v>0.8249795791906841</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7209495453494261</v>
+        <v>0.9752716758799671</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9.890141858677229</v>
+        <v>1.183384633818981</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_0_gamma0.64_sharpness0.72_brightness9.9.jpg</t>
+          <t>34_0_sharpness0.82_gamma0.98_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1299830629417515</v>
+        <v>0.6214059911775132</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5891977356602889</v>
+        <v>0.5453497447039093</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>14.17090752652621</v>
+        <v>0.8454591044755708</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_C_sharpness0.13_gamma0.59_equalization14.0.jpg</t>
+          <t>35_I_sharpness0.62_gamma0.55_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8265557981451356</v>
+        <v>0.2381300242465512</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6028083228352255</v>
+        <v>1.123509895419354</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24.07989457568587</v>
+        <v>24.76145386953736</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_2_contrast0.83_gamma0.6_equalization24.0.jpg</t>
+          <t>36_1_sharpness0.24_contrast1.1_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,30 +2007,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.086256511719293</v>
+        <v>0.6976915510404453</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.149139133079893</v>
+        <v>22.47060840947293</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5856749093880051</v>
+        <v>1.084436728627271</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_gamma1.1_contrast1.1_sharpness0.59.jpg</t>
+          <t>37_B_gamma0.7_brightness22.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2045,34 +2045,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4405099618512448</v>
+        <v>14.99944434963489</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>14.04863831458457</v>
+        <v>0.5855694856731927</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.8584311291954793</v>
+        <v>0.7799720458191075</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_0_sharpness0.44_brightness14.0_contrast0.86.jpg</t>
+          <t>38_0_brightness15.0_sharpness0.59_gamma0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.697178831468888</v>
+        <v>1.064557905128149</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.00431481323407</v>
+        <v>28.22226843737073</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>15.26401024968478</v>
+        <v>0.8656570058507773</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_P_gamma0.7_contrast1.0_equalization15.0.jpg</t>
+          <t>39_0_contrast1.1_brightness28.0_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,15 +2133,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.4981032871034761</v>
+        <v>0.7267343599613572</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9248472975651598</v>
+        <v>1.082993780133705</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>24.04745840917137</v>
+        <v>5.730004998546772</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_sharpness0.5_contrast0.92_equalization24.0.jpg</t>
+          <t>40_1_sharpness0.73_gamma1.1_equalization5.7.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,24 +2166,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8088918226255623</v>
+        <v>0.5976624402996111</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5243851816423634</v>
+        <v>1.114069720059389</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>23.76566125979439</v>
+        <v>4.204302516528235</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_3_contrast0.81_sharpness0.52_equalization24.0.jpg</t>
+          <t>41_1_gamma0.6_contrast1.1_equalization4.2.jpg</t>
         </is>
       </c>
     </row>
@@ -2213,34 +2213,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.150509831207545</v>
+        <v>5.406140698903149</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.03640999726296101</v>
+        <v>0.9095444571780075</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10.85933156525077</v>
+        <v>1.08857294340233</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_contrast1.2_sharpness0.036_brightness11.0.jpg</t>
+          <t>42_T_brightness5.4_contrast0.91_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.026685116908159</v>
+        <v>0.9229953698356971</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.4774841897079539</v>
+        <v>0.6923639510062144</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.9870507188063097</v>
+        <v>20.37267833180724</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_brightness2.0_sharpness0.48_contrast0.99.jpg</t>
+          <t>43_1_contrast0.92_gamma0.69_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20.4249793951345</v>
+        <v>1.058360760585127</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.032259871145451</v>
+        <v>0.9069067494544832</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.5947948939467447</v>
+        <v>20.01600455150875</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_B_brightness20.0_contrast1.0_sharpness0.59.jpg</t>
+          <t>44_0_contrast1.1_gamma0.91_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,15 +2343,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.009785182919934</v>
+        <v>0.9448558773985312</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.05893852336413785</v>
+        <v>0.6650036674489462</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>14.5771536855313</v>
+        <v>20.80917861943749</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_S_contrast1.0_sharpness0.059_equalization15.0.jpg</t>
+          <t>45_1_contrast0.94_gamma0.67_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5175275998990688</v>
+        <v>1.177126276126533</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8595140734895877</v>
+        <v>0.08909597799961522</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>29.29275182724965</v>
+        <v>0.5400573253884579</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_gamma0.52_contrast0.86_equalization29.0.jpg</t>
+          <t>46_2_contrast1.2_sharpness0.089_gamma0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.68876292781577</v>
+        <v>0.842405969678298</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.097057530861489</v>
+        <v>1.174932276370175</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>30.48813553719851</v>
+        <v>29.72267644599876</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_sharpness0.69_contrast1.1_equalization30.0.jpg</t>
+          <t>47_0_gamma0.84_contrast1.2_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.170217066831059</v>
+        <v>13.97860677059355</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8706714418079957</v>
+        <v>0.9684766570866395</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.737566192554535</v>
+        <v>0.9065738719182177</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_0_contrast1.2_gamma0.87_sharpness0.74.jpg</t>
+          <t>48_7_brightness14.0_sharpness0.97_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
